--- a/natmiOut/OldD0/LR-pairs_lrc2p/Hspg2-Itgb1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Hspg2-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.4297854471618</v>
+        <v>117.9639543333333</v>
       </c>
       <c r="H2">
-        <v>31.4297854471618</v>
+        <v>353.891863</v>
       </c>
       <c r="I2">
-        <v>0.08895037227178557</v>
+        <v>0.2661690114309019</v>
       </c>
       <c r="J2">
-        <v>0.08895037227178557</v>
+        <v>0.2661690114309019</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N2">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q2">
-        <v>3324.666923835405</v>
+        <v>13807.03948469696</v>
       </c>
       <c r="R2">
-        <v>3324.666923835405</v>
+        <v>124263.3553622726</v>
       </c>
       <c r="S2">
-        <v>0.02706559185756288</v>
+        <v>0.08638157655753324</v>
       </c>
       <c r="T2">
-        <v>0.02706559185756288</v>
+        <v>0.08638157655753324</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.4297854471618</v>
+        <v>117.9639543333333</v>
       </c>
       <c r="H3">
-        <v>31.4297854471618</v>
+        <v>353.891863</v>
       </c>
       <c r="I3">
-        <v>0.08895037227178557</v>
+        <v>0.2661690114309019</v>
       </c>
       <c r="J3">
-        <v>0.08895037227178557</v>
+        <v>0.2661690114309019</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N3">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q3">
-        <v>3189.848709910031</v>
+        <v>11982.78288516763</v>
       </c>
       <c r="R3">
-        <v>3189.848709910031</v>
+        <v>107845.0459665087</v>
       </c>
       <c r="S3">
-        <v>0.02596805792810077</v>
+        <v>0.0749684013227203</v>
       </c>
       <c r="T3">
-        <v>0.02596805792810077</v>
+        <v>0.07496840132272029</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.4297854471618</v>
+        <v>117.9639543333333</v>
       </c>
       <c r="H4">
-        <v>31.4297854471618</v>
+        <v>353.891863</v>
       </c>
       <c r="I4">
-        <v>0.08895037227178557</v>
+        <v>0.2661690114309019</v>
       </c>
       <c r="J4">
-        <v>0.08895037227178557</v>
+        <v>0.2661690114309019</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N4">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q4">
-        <v>4411.916794231051</v>
+        <v>16754.04169102729</v>
       </c>
       <c r="R4">
-        <v>4411.916794231051</v>
+        <v>150786.3752192456</v>
       </c>
       <c r="S4">
-        <v>0.03591672248612192</v>
+        <v>0.1048190335506484</v>
       </c>
       <c r="T4">
-        <v>0.03591672248612192</v>
+        <v>0.1048190335506484</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>279.608741037999</v>
+        <v>282.6413673333333</v>
       </c>
       <c r="H5">
-        <v>279.608741037999</v>
+        <v>847.9241019999999</v>
       </c>
       <c r="I5">
-        <v>0.7913290291970875</v>
+        <v>0.6377403483780447</v>
       </c>
       <c r="J5">
-        <v>0.7913290291970875</v>
+        <v>0.6377403483780446</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N5">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q5">
-        <v>29577.22808853092</v>
+        <v>33081.63532525247</v>
       </c>
       <c r="R5">
-        <v>29577.22808853092</v>
+        <v>297734.7179272723</v>
       </c>
       <c r="S5">
-        <v>0.2407835738320277</v>
+        <v>0.2069700617329272</v>
       </c>
       <c r="T5">
-        <v>0.2407835738320277</v>
+        <v>0.2069700617329272</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>279.608741037999</v>
+        <v>282.6413673333333</v>
       </c>
       <c r="H6">
-        <v>279.608741037999</v>
+        <v>847.9241019999999</v>
       </c>
       <c r="I6">
-        <v>0.7913290291970875</v>
+        <v>0.6377403483780447</v>
       </c>
       <c r="J6">
-        <v>0.7913290291970875</v>
+        <v>0.6377403483780446</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N6">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q6">
-        <v>28377.84506607795</v>
+        <v>28710.72064566438</v>
       </c>
       <c r="R6">
-        <v>28377.84506607795</v>
+        <v>258396.4858109794</v>
       </c>
       <c r="S6">
-        <v>0.2310195848038716</v>
+        <v>0.1796241197270569</v>
       </c>
       <c r="T6">
-        <v>0.2310195848038716</v>
+        <v>0.1796241197270569</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>279.608741037999</v>
+        <v>282.6413673333333</v>
       </c>
       <c r="H7">
-        <v>279.608741037999</v>
+        <v>847.9241019999999</v>
       </c>
       <c r="I7">
-        <v>0.7913290291970875</v>
+        <v>0.6377403483780447</v>
       </c>
       <c r="J7">
-        <v>0.7913290291970875</v>
+        <v>0.6377403483780446</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N7">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q7">
-        <v>39249.72706139638</v>
+        <v>40142.64593513661</v>
       </c>
       <c r="R7">
-        <v>39249.72706139638</v>
+        <v>361283.8134162296</v>
       </c>
       <c r="S7">
-        <v>0.3195258705611882</v>
+        <v>0.2511461669180606</v>
       </c>
       <c r="T7">
-        <v>0.3195258705611882</v>
+        <v>0.2511461669180605</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>42.302158263509</v>
+        <v>42.586595</v>
       </c>
       <c r="H8">
-        <v>42.302158263509</v>
+        <v>127.759785</v>
       </c>
       <c r="I8">
-        <v>0.119720598531127</v>
+        <v>0.09609064019105341</v>
       </c>
       <c r="J8">
-        <v>0.119720598531127</v>
+        <v>0.09609064019105343</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N8">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q8">
-        <v>4474.754898406065</v>
+        <v>4984.529401432985</v>
       </c>
       <c r="R8">
-        <v>4474.754898406065</v>
+        <v>44860.76461289686</v>
       </c>
       <c r="S8">
-        <v>0.03642827763425143</v>
+        <v>0.031184926252321</v>
       </c>
       <c r="T8">
-        <v>0.03642827763425143</v>
+        <v>0.031184926252321</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>42.302158263509</v>
+        <v>42.586595</v>
       </c>
       <c r="H9">
-        <v>42.302158263509</v>
+        <v>127.759785</v>
       </c>
       <c r="I9">
-        <v>0.119720598531127</v>
+        <v>0.09609064019105341</v>
       </c>
       <c r="J9">
-        <v>0.119720598531127</v>
+        <v>0.09609064019105343</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N9">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q9">
-        <v>4293.299589655627</v>
+        <v>4325.947909999546</v>
       </c>
       <c r="R9">
-        <v>4293.299589655627</v>
+        <v>38933.53118999592</v>
       </c>
       <c r="S9">
-        <v>0.03495107843218467</v>
+        <v>0.02706461446609881</v>
       </c>
       <c r="T9">
-        <v>0.03495107843218467</v>
+        <v>0.02706461446609881</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>42.302158263509</v>
+        <v>42.586595</v>
       </c>
       <c r="H10">
-        <v>42.302158263509</v>
+        <v>127.759785</v>
       </c>
       <c r="I10">
-        <v>0.119720598531127</v>
+        <v>0.09609064019105341</v>
       </c>
       <c r="J10">
-        <v>0.119720598531127</v>
+        <v>0.09609064019105343</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N10">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q10">
-        <v>5938.112520327394</v>
+        <v>6048.437356488987</v>
       </c>
       <c r="R10">
-        <v>5938.112520327394</v>
+        <v>54435.93620840088</v>
       </c>
       <c r="S10">
-        <v>0.04834124246469088</v>
+        <v>0.0378410994726336</v>
       </c>
       <c r="T10">
-        <v>0.04834124246469088</v>
+        <v>0.03784109947263361</v>
       </c>
     </row>
   </sheetData>
